--- a/Sudoku Solution.xlsx
+++ b/Sudoku Solution.xlsx
@@ -369,263 +369,263 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
         <v>5</v>
       </c>
       <c r="C1" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
         <v>3</v>
       </c>
       <c r="H3" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I8" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
       </c>
       <c r="I9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Sudoku Solution.xlsx
+++ b/Sudoku Solution.xlsx
@@ -32,7 +32,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -44,12 +44,77 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -59,9 +124,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -369,263 +458,263 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>7</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>6</v>
       </c>
       <c r="G1" s="1">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="H1" s="2">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="1">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="A2" s="4">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="1">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>9</v>
+      <c r="A5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="1">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
+      <c r="A6" s="4">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7</v>
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>8</v>
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>6</v>
+      </c>
+      <c r="I9" s="9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Sudoku Solution.xlsx
+++ b/Sudoku Solution.xlsx
@@ -464,7 +464,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1">
         <v>6</v>
@@ -473,45 +473,45 @@
         <v>4</v>
       </c>
       <c r="F1" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2">
         <v>1</v>
       </c>
       <c r="I1" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
@@ -519,202 +519,202 @@
         <v>6</v>
       </c>
       <c r="B3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I3" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
         <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
         <v>4</v>
       </c>
       <c r="H5" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5">
         <v>7</v>
       </c>
       <c r="G6" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H6" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
         <v>4</v>
       </c>
       <c r="E9" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
       </c>
       <c r="H9" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I9" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Sudoku Solution.xlsx
+++ b/Sudoku Solution.xlsx
@@ -458,28 +458,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3">
         <v>9</v>
@@ -487,115 +487,115 @@
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I3" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I5" s="6">
         <v>3</v>
@@ -603,31 +603,31 @@
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H6" s="5">
         <v>5</v>
       </c>
       <c r="I6" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
@@ -635,28 +635,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
@@ -664,57 +664,57 @@
         <v>1</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B9" s="8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H9" s="8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I9" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Sudoku Solution.xlsx
+++ b/Sudoku Solution.xlsx
@@ -458,263 +458,263 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2">
         <v>5</v>
       </c>
       <c r="C1" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I4" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5">
         <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H8" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I9" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Sudoku Solution.xlsx
+++ b/Sudoku Solution.xlsx
@@ -458,31 +458,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2">
         <v>4</v>
       </c>
       <c r="F1" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I1" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
@@ -490,83 +490,83 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4">
         <v>2</v>
       </c>
       <c r="H3" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I3" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
@@ -577,83 +577,83 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G6" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I7" s="3">
         <v>2</v>
@@ -661,60 +661,60 @@
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Sudoku Solution.xlsx
+++ b/Sudoku Solution.xlsx
@@ -458,263 +458,263 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1">
         <v>7</v>
       </c>
       <c r="H1" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H2" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I2" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
       <c r="A3" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I3" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="5">
         <v>9</v>
       </c>
       <c r="F6" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2">
         <v>6</v>
       </c>
       <c r="G7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="A8" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" s="5">
         <v>6</v>
       </c>
       <c r="I8" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E9" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
       </c>
       <c r="G9" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I9" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
